--- a/arduino/Clock/工作簿1.xlsx
+++ b/arduino/Clock/工作簿1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="14940" windowHeight="12150"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="14940" windowHeight="12150" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="70">
   <si>
     <t>G</t>
   </si>
@@ -117,118 +117,144 @@
     <t>A0</t>
   </si>
   <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x8000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(LED1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(LED2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(LED1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>先送低，后送高</t>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x8000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(LED1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(LED2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(LED1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x20,0x00,</t>
+  </si>
+  <si>
+    <t>0x08,0x00,</t>
+  </si>
+  <si>
+    <t>0x02,0x00,</t>
+  </si>
+  <si>
+    <t>0x00,0x20,</t>
+  </si>
+  <si>
+    <t>0x00,0x10,</t>
+  </si>
+  <si>
+    <t>0x00,0x04,</t>
+  </si>
+  <si>
+    <t>0x00,0x01</t>
+  </si>
+  <si>
+    <t>0x00,0x00,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -696,17 +722,17 @@
         <v>32</v>
       </c>
       <c r="Q4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -727,13 +753,13 @@
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s">
         <v>8</v>
@@ -756,7 +782,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -830,22 +856,22 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O10">
         <v>9</v>
@@ -856,52 +882,52 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" t="s">
         <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" t="s">
-        <v>54</v>
-      </c>
-      <c r="N11" t="s">
-        <v>53</v>
-      </c>
-      <c r="O11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
@@ -955,33 +981,33 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -1041,13 +1067,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19">
         <v>8</v>
@@ -1055,33 +1081,33 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
         <v>59</v>
-      </c>
-      <c r="B21" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -1097,25 +1123,25 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -1125,7 +1151,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1136,12 +1162,272 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
